--- a/artfynd/A 7380-2023.xlsx
+++ b/artfynd/A 7380-2023.xlsx
@@ -1505,10 +1505,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111611146</v>
+        <v>111611158</v>
       </c>
       <c r="B9" t="n">
-        <v>88630</v>
+        <v>86021</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1521,21 +1521,21 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>4823</v>
+        <v>4037</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Hasselsopp</t>
+          <t>Bolmörtsskivling</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Leccinellum pseudoscabrum</t>
+          <t>Entoloma sinuatum</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Kallenb.) Mikšík</t>
+          <t>(Bull.) P.Kumm.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -1554,10 +1554,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>663088.0668624006</v>
+        <v>663128.0992466732</v>
       </c>
       <c r="R9" t="n">
-        <v>6634684.960451891</v>
+        <v>6634761.25188593</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1584,7 +1584,7 @@
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>2023-08-11</t>
+          <t>2023-08-12</t>
         </is>
       </c>
       <c r="Z9" t="inlineStr">
@@ -1594,7 +1594,7 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2023-08-11</t>
+          <t>2023-08-12</t>
         </is>
       </c>
       <c r="AB9" t="inlineStr">
@@ -1604,7 +1604,7 @@
       </c>
       <c r="AC9" t="inlineStr">
         <is>
-          <t>1 ex. under ek och hassel.</t>
+          <t>1 ex. i lövförna under ek och hassel.</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1629,17 +1629,17 @@
       </c>
       <c r="AX9" t="inlineStr">
         <is>
-          <t>Gillis Aronsson</t>
+          <t>Gillis Aronsson, Cajsa Björkén</t>
         </is>
       </c>
       <c r="AY9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111611158</v>
+        <v>111611165</v>
       </c>
       <c r="B10" t="n">
-        <v>86021</v>
+        <v>84741</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1648,25 +1648,25 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>4037</v>
+        <v>37</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Bolmörtsskivling</t>
+          <t>Jättekamskivling</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Entoloma sinuatum</t>
+          <t>Amanita ceciliae</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Bull.) P.Kumm.</t>
+          <t>(Berk. &amp; Broome) Bas</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -1685,10 +1685,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>663128.0992466732</v>
+        <v>663088.0668624006</v>
       </c>
       <c r="R10" t="n">
-        <v>6634761.25188593</v>
+        <v>6634684.960451891</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1715,7 +1715,7 @@
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>2023-08-12</t>
+          <t>2023-08-11</t>
         </is>
       </c>
       <c r="Z10" t="inlineStr">
@@ -1725,7 +1725,7 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2023-08-12</t>
+          <t>2023-08-11</t>
         </is>
       </c>
       <c r="AB10" t="inlineStr">
@@ -1735,7 +1735,7 @@
       </c>
       <c r="AC10" t="inlineStr">
         <is>
-          <t>1 ex. i lövförna under ek och hassel.</t>
+          <t>1 ex. under ek och hassel.</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1760,17 +1760,17 @@
       </c>
       <c r="AX10" t="inlineStr">
         <is>
-          <t>Gillis Aronsson, Cajsa Björkén</t>
+          <t>Gillis Aronsson</t>
         </is>
       </c>
       <c r="AY10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111611145</v>
+        <v>111611138</v>
       </c>
       <c r="B11" t="n">
-        <v>88630</v>
+        <v>81796</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1783,26 +1783,26 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>4823</v>
+        <v>5406</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Hasselsopp</t>
+          <t>Gulmjölkig storskål</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Leccinellum pseudoscabrum</t>
+          <t>Peziza succosa</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Kallenb.) Mikšík</t>
+          <t>Berk.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -1816,10 +1816,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>663143.8264147732</v>
+        <v>663213.3366271106</v>
       </c>
       <c r="R11" t="n">
-        <v>6634793.669287071</v>
+        <v>6634830.464506784</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1866,7 +1866,7 @@
       </c>
       <c r="AC11" t="inlineStr">
         <is>
-          <t>1 ex. i lövförna under hassel.</t>
+          <t>3 ex. på bar jord och i lövförna.</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1898,10 +1898,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111611138</v>
+        <v>111611146</v>
       </c>
       <c r="B12" t="n">
-        <v>81796</v>
+        <v>88630</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1914,26 +1914,26 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>5406</v>
+        <v>4823</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Gulmjölkig storskål</t>
+          <t>Hasselsopp</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Peziza succosa</t>
+          <t>Leccinellum pseudoscabrum</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Berk.</t>
+          <t>(Kallenb.) Mikšík</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -1947,10 +1947,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>663213.3366271106</v>
+        <v>663088.0668624006</v>
       </c>
       <c r="R12" t="n">
-        <v>6634830.464506784</v>
+        <v>6634684.960451891</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1977,7 +1977,7 @@
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>2023-08-12</t>
+          <t>2023-08-11</t>
         </is>
       </c>
       <c r="Z12" t="inlineStr">
@@ -1987,7 +1987,7 @@
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>2023-08-12</t>
+          <t>2023-08-11</t>
         </is>
       </c>
       <c r="AB12" t="inlineStr">
@@ -1997,7 +1997,7 @@
       </c>
       <c r="AC12" t="inlineStr">
         <is>
-          <t>3 ex. på bar jord och i lövförna.</t>
+          <t>1 ex. under ek och hassel.</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -2022,17 +2022,17 @@
       </c>
       <c r="AX12" t="inlineStr">
         <is>
-          <t>Gillis Aronsson, Cajsa Björkén</t>
+          <t>Gillis Aronsson</t>
         </is>
       </c>
       <c r="AY12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111611165</v>
+        <v>111611145</v>
       </c>
       <c r="B13" t="n">
-        <v>84741</v>
+        <v>88630</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -2041,25 +2041,25 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>37</v>
+        <v>4823</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Jättekamskivling</t>
+          <t>Hasselsopp</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Amanita ceciliae</t>
+          <t>Leccinellum pseudoscabrum</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Berk. &amp; Broome) Bas</t>
+          <t>(Kallenb.) Mikšík</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -2078,10 +2078,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>663088.0668624006</v>
+        <v>663143.8264147732</v>
       </c>
       <c r="R13" t="n">
-        <v>6634684.960451891</v>
+        <v>6634793.669287071</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2108,7 +2108,7 @@
       </c>
       <c r="Y13" t="inlineStr">
         <is>
-          <t>2023-08-11</t>
+          <t>2023-08-12</t>
         </is>
       </c>
       <c r="Z13" t="inlineStr">
@@ -2118,7 +2118,7 @@
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2023-08-11</t>
+          <t>2023-08-12</t>
         </is>
       </c>
       <c r="AB13" t="inlineStr">
@@ -2128,7 +2128,7 @@
       </c>
       <c r="AC13" t="inlineStr">
         <is>
-          <t>1 ex. under ek och hassel.</t>
+          <t>1 ex. i lövförna under hassel.</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -2153,7 +2153,7 @@
       </c>
       <c r="AX13" t="inlineStr">
         <is>
-          <t>Gillis Aronsson</t>
+          <t>Gillis Aronsson, Cajsa Björkén</t>
         </is>
       </c>
       <c r="AY13" t="inlineStr"/>

--- a/artfynd/A 7380-2023.xlsx
+++ b/artfynd/A 7380-2023.xlsx
@@ -1505,10 +1505,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111611158</v>
+        <v>111611146</v>
       </c>
       <c r="B9" t="n">
-        <v>86021</v>
+        <v>88630</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1521,21 +1521,21 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>4037</v>
+        <v>4823</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Bolmörtsskivling</t>
+          <t>Hasselsopp</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Entoloma sinuatum</t>
+          <t>Leccinellum pseudoscabrum</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Bull.) P.Kumm.</t>
+          <t>(Kallenb.) Mikšík</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -1554,10 +1554,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>663128.0992466732</v>
+        <v>663088.0668624006</v>
       </c>
       <c r="R9" t="n">
-        <v>6634761.25188593</v>
+        <v>6634684.960451891</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1584,7 +1584,7 @@
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>2023-08-12</t>
+          <t>2023-08-11</t>
         </is>
       </c>
       <c r="Z9" t="inlineStr">
@@ -1594,7 +1594,7 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2023-08-12</t>
+          <t>2023-08-11</t>
         </is>
       </c>
       <c r="AB9" t="inlineStr">
@@ -1604,7 +1604,7 @@
       </c>
       <c r="AC9" t="inlineStr">
         <is>
-          <t>1 ex. i lövförna under ek och hassel.</t>
+          <t>1 ex. under ek och hassel.</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1629,17 +1629,17 @@
       </c>
       <c r="AX9" t="inlineStr">
         <is>
-          <t>Gillis Aronsson, Cajsa Björkén</t>
+          <t>Gillis Aronsson</t>
         </is>
       </c>
       <c r="AY9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111611165</v>
+        <v>111611138</v>
       </c>
       <c r="B10" t="n">
-        <v>84741</v>
+        <v>81796</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1648,30 +1648,30 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>37</v>
+        <v>5406</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Jättekamskivling</t>
+          <t>Gulmjölkig storskål</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Amanita ceciliae</t>
+          <t>Peziza succosa</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Berk. &amp; Broome) Bas</t>
+          <t>Berk.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -1685,10 +1685,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>663088.0668624006</v>
+        <v>663213.3366271106</v>
       </c>
       <c r="R10" t="n">
-        <v>6634684.960451891</v>
+        <v>6634830.464506784</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1715,7 +1715,7 @@
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>2023-08-11</t>
+          <t>2023-08-12</t>
         </is>
       </c>
       <c r="Z10" t="inlineStr">
@@ -1725,7 +1725,7 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2023-08-11</t>
+          <t>2023-08-12</t>
         </is>
       </c>
       <c r="AB10" t="inlineStr">
@@ -1735,7 +1735,7 @@
       </c>
       <c r="AC10" t="inlineStr">
         <is>
-          <t>1 ex. under ek och hassel.</t>
+          <t>3 ex. på bar jord och i lövförna.</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1760,17 +1760,17 @@
       </c>
       <c r="AX10" t="inlineStr">
         <is>
-          <t>Gillis Aronsson</t>
+          <t>Gillis Aronsson, Cajsa Björkén</t>
         </is>
       </c>
       <c r="AY10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111611138</v>
+        <v>111611145</v>
       </c>
       <c r="B11" t="n">
-        <v>81796</v>
+        <v>88630</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1783,26 +1783,26 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>5406</v>
+        <v>4823</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Gulmjölkig storskål</t>
+          <t>Hasselsopp</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Peziza succosa</t>
+          <t>Leccinellum pseudoscabrum</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Berk.</t>
+          <t>(Kallenb.) Mikšík</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -1816,10 +1816,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>663213.3366271106</v>
+        <v>663143.8264147732</v>
       </c>
       <c r="R11" t="n">
-        <v>6634830.464506784</v>
+        <v>6634793.669287071</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1866,7 +1866,7 @@
       </c>
       <c r="AC11" t="inlineStr">
         <is>
-          <t>3 ex. på bar jord och i lövförna.</t>
+          <t>1 ex. i lövförna under hassel.</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1898,10 +1898,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111611146</v>
+        <v>111611165</v>
       </c>
       <c r="B12" t="n">
-        <v>88630</v>
+        <v>84741</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1910,25 +1910,25 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>4823</v>
+        <v>37</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Hasselsopp</t>
+          <t>Jättekamskivling</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Leccinellum pseudoscabrum</t>
+          <t>Amanita ceciliae</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Kallenb.) Mikšík</t>
+          <t>(Berk. &amp; Broome) Bas</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -2029,10 +2029,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111611145</v>
+        <v>111611158</v>
       </c>
       <c r="B13" t="n">
-        <v>88630</v>
+        <v>86021</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -2045,21 +2045,21 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>4823</v>
+        <v>4037</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Hasselsopp</t>
+          <t>Bolmörtsskivling</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Leccinellum pseudoscabrum</t>
+          <t>Entoloma sinuatum</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Kallenb.) Mikšík</t>
+          <t>(Bull.) P.Kumm.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -2078,10 +2078,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>663143.8264147732</v>
+        <v>663128.0992466732</v>
       </c>
       <c r="R13" t="n">
-        <v>6634793.669287071</v>
+        <v>6634761.25188593</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2128,7 +2128,7 @@
       </c>
       <c r="AC13" t="inlineStr">
         <is>
-          <t>1 ex. i lövförna under hassel.</t>
+          <t>1 ex. i lövförna under ek och hassel.</t>
         </is>
       </c>
       <c r="AD13" t="b">

--- a/artfynd/A 7380-2023.xlsx
+++ b/artfynd/A 7380-2023.xlsx
@@ -1505,10 +1505,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111611146</v>
+        <v>111611165</v>
       </c>
       <c r="B9" t="n">
-        <v>88630</v>
+        <v>84741</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1517,25 +1517,25 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>4823</v>
+        <v>37</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Hasselsopp</t>
+          <t>Jättekamskivling</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Leccinellum pseudoscabrum</t>
+          <t>Amanita ceciliae</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Kallenb.) Mikšík</t>
+          <t>(Berk. &amp; Broome) Bas</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -1636,10 +1636,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111611138</v>
+        <v>111611146</v>
       </c>
       <c r="B10" t="n">
-        <v>81796</v>
+        <v>88630</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1652,26 +1652,26 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>5406</v>
+        <v>4823</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Gulmjölkig storskål</t>
+          <t>Hasselsopp</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Peziza succosa</t>
+          <t>Leccinellum pseudoscabrum</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Berk.</t>
+          <t>(Kallenb.) Mikšík</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -1685,10 +1685,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>663213.3366271106</v>
+        <v>663088.0668624006</v>
       </c>
       <c r="R10" t="n">
-        <v>6634830.464506784</v>
+        <v>6634684.960451891</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1715,7 +1715,7 @@
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>2023-08-12</t>
+          <t>2023-08-11</t>
         </is>
       </c>
       <c r="Z10" t="inlineStr">
@@ -1725,7 +1725,7 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2023-08-12</t>
+          <t>2023-08-11</t>
         </is>
       </c>
       <c r="AB10" t="inlineStr">
@@ -1735,7 +1735,7 @@
       </c>
       <c r="AC10" t="inlineStr">
         <is>
-          <t>3 ex. på bar jord och i lövförna.</t>
+          <t>1 ex. under ek och hassel.</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1760,17 +1760,17 @@
       </c>
       <c r="AX10" t="inlineStr">
         <is>
-          <t>Gillis Aronsson, Cajsa Björkén</t>
+          <t>Gillis Aronsson</t>
         </is>
       </c>
       <c r="AY10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111611145</v>
+        <v>111611158</v>
       </c>
       <c r="B11" t="n">
-        <v>88630</v>
+        <v>86021</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1783,21 +1783,21 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>4823</v>
+        <v>4037</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Hasselsopp</t>
+          <t>Bolmörtsskivling</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Leccinellum pseudoscabrum</t>
+          <t>Entoloma sinuatum</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Kallenb.) Mikšík</t>
+          <t>(Bull.) P.Kumm.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -1816,10 +1816,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>663143.8264147732</v>
+        <v>663128.0992466732</v>
       </c>
       <c r="R11" t="n">
-        <v>6634793.669287071</v>
+        <v>6634761.25188593</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1866,7 +1866,7 @@
       </c>
       <c r="AC11" t="inlineStr">
         <is>
-          <t>1 ex. i lövförna under hassel.</t>
+          <t>1 ex. i lövförna under ek och hassel.</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1898,10 +1898,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111611165</v>
+        <v>111611145</v>
       </c>
       <c r="B12" t="n">
-        <v>84741</v>
+        <v>88630</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1910,25 +1910,25 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>37</v>
+        <v>4823</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Jättekamskivling</t>
+          <t>Hasselsopp</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Amanita ceciliae</t>
+          <t>Leccinellum pseudoscabrum</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Berk. &amp; Broome) Bas</t>
+          <t>(Kallenb.) Mikšík</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -1947,10 +1947,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>663088.0668624006</v>
+        <v>663143.8264147732</v>
       </c>
       <c r="R12" t="n">
-        <v>6634684.960451891</v>
+        <v>6634793.669287071</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1977,7 +1977,7 @@
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>2023-08-11</t>
+          <t>2023-08-12</t>
         </is>
       </c>
       <c r="Z12" t="inlineStr">
@@ -1987,7 +1987,7 @@
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>2023-08-11</t>
+          <t>2023-08-12</t>
         </is>
       </c>
       <c r="AB12" t="inlineStr">
@@ -1997,7 +1997,7 @@
       </c>
       <c r="AC12" t="inlineStr">
         <is>
-          <t>1 ex. under ek och hassel.</t>
+          <t>1 ex. i lövförna under hassel.</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -2022,17 +2022,17 @@
       </c>
       <c r="AX12" t="inlineStr">
         <is>
-          <t>Gillis Aronsson</t>
+          <t>Gillis Aronsson, Cajsa Björkén</t>
         </is>
       </c>
       <c r="AY12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111611158</v>
+        <v>111611138</v>
       </c>
       <c r="B13" t="n">
-        <v>86021</v>
+        <v>81796</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -2045,26 +2045,26 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>4037</v>
+        <v>5406</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Bolmörtsskivling</t>
+          <t>Gulmjölkig storskål</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Entoloma sinuatum</t>
+          <t>Peziza succosa</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Bull.) P.Kumm.</t>
+          <t>Berk.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -2078,10 +2078,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>663128.0992466732</v>
+        <v>663213.3366271106</v>
       </c>
       <c r="R13" t="n">
-        <v>6634761.25188593</v>
+        <v>6634830.464506784</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2128,7 +2128,7 @@
       </c>
       <c r="AC13" t="inlineStr">
         <is>
-          <t>1 ex. i lövförna under ek och hassel.</t>
+          <t>3 ex. på bar jord och i lövförna.</t>
         </is>
       </c>
       <c r="AD13" t="b">

--- a/artfynd/A 7380-2023.xlsx
+++ b/artfynd/A 7380-2023.xlsx
@@ -1505,10 +1505,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111611165</v>
+        <v>111611146</v>
       </c>
       <c r="B9" t="n">
-        <v>84741</v>
+        <v>88630</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1517,25 +1517,25 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>37</v>
+        <v>4823</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Jättekamskivling</t>
+          <t>Hasselsopp</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Amanita ceciliae</t>
+          <t>Leccinellum pseudoscabrum</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Berk. &amp; Broome) Bas</t>
+          <t>(Kallenb.) Mikšík</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -1636,10 +1636,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111611146</v>
+        <v>111611158</v>
       </c>
       <c r="B10" t="n">
-        <v>88630</v>
+        <v>86021</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1652,21 +1652,21 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>4823</v>
+        <v>4037</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Hasselsopp</t>
+          <t>Bolmörtsskivling</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Leccinellum pseudoscabrum</t>
+          <t>Entoloma sinuatum</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Kallenb.) Mikšík</t>
+          <t>(Bull.) P.Kumm.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -1685,10 +1685,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>663088.0668624006</v>
+        <v>663128.0992466732</v>
       </c>
       <c r="R10" t="n">
-        <v>6634684.960451891</v>
+        <v>6634761.25188593</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1715,7 +1715,7 @@
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>2023-08-11</t>
+          <t>2023-08-12</t>
         </is>
       </c>
       <c r="Z10" t="inlineStr">
@@ -1725,7 +1725,7 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2023-08-11</t>
+          <t>2023-08-12</t>
         </is>
       </c>
       <c r="AB10" t="inlineStr">
@@ -1735,7 +1735,7 @@
       </c>
       <c r="AC10" t="inlineStr">
         <is>
-          <t>1 ex. under ek och hassel.</t>
+          <t>1 ex. i lövförna under ek och hassel.</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1760,17 +1760,17 @@
       </c>
       <c r="AX10" t="inlineStr">
         <is>
-          <t>Gillis Aronsson</t>
+          <t>Gillis Aronsson, Cajsa Björkén</t>
         </is>
       </c>
       <c r="AY10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111611158</v>
+        <v>111611145</v>
       </c>
       <c r="B11" t="n">
-        <v>86021</v>
+        <v>88630</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1783,21 +1783,21 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>4037</v>
+        <v>4823</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Bolmörtsskivling</t>
+          <t>Hasselsopp</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Entoloma sinuatum</t>
+          <t>Leccinellum pseudoscabrum</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Bull.) P.Kumm.</t>
+          <t>(Kallenb.) Mikšík</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -1816,10 +1816,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>663128.0992466732</v>
+        <v>663143.8264147732</v>
       </c>
       <c r="R11" t="n">
-        <v>6634761.25188593</v>
+        <v>6634793.669287071</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1866,7 +1866,7 @@
       </c>
       <c r="AC11" t="inlineStr">
         <is>
-          <t>1 ex. i lövförna under ek och hassel.</t>
+          <t>1 ex. i lövförna under hassel.</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1898,10 +1898,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111611145</v>
+        <v>111611138</v>
       </c>
       <c r="B12" t="n">
-        <v>88630</v>
+        <v>81796</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1914,26 +1914,26 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>4823</v>
+        <v>5406</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Hasselsopp</t>
+          <t>Gulmjölkig storskål</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Leccinellum pseudoscabrum</t>
+          <t>Peziza succosa</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Kallenb.) Mikšík</t>
+          <t>Berk.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -1947,10 +1947,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>663143.8264147732</v>
+        <v>663213.3366271106</v>
       </c>
       <c r="R12" t="n">
-        <v>6634793.669287071</v>
+        <v>6634830.464506784</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1997,7 +1997,7 @@
       </c>
       <c r="AC12" t="inlineStr">
         <is>
-          <t>1 ex. i lövförna under hassel.</t>
+          <t>3 ex. på bar jord och i lövförna.</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -2029,10 +2029,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111611138</v>
+        <v>111611165</v>
       </c>
       <c r="B13" t="n">
-        <v>81796</v>
+        <v>84741</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -2041,30 +2041,30 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>5406</v>
+        <v>37</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Gulmjölkig storskål</t>
+          <t>Jättekamskivling</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Peziza succosa</t>
+          <t>Amanita ceciliae</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Berk.</t>
+          <t>(Berk. &amp; Broome) Bas</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -2078,10 +2078,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>663213.3366271106</v>
+        <v>663088.0668624006</v>
       </c>
       <c r="R13" t="n">
-        <v>6634830.464506784</v>
+        <v>6634684.960451891</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2108,7 +2108,7 @@
       </c>
       <c r="Y13" t="inlineStr">
         <is>
-          <t>2023-08-12</t>
+          <t>2023-08-11</t>
         </is>
       </c>
       <c r="Z13" t="inlineStr">
@@ -2118,7 +2118,7 @@
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2023-08-12</t>
+          <t>2023-08-11</t>
         </is>
       </c>
       <c r="AB13" t="inlineStr">
@@ -2128,7 +2128,7 @@
       </c>
       <c r="AC13" t="inlineStr">
         <is>
-          <t>3 ex. på bar jord och i lövförna.</t>
+          <t>1 ex. under ek och hassel.</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -2153,7 +2153,7 @@
       </c>
       <c r="AX13" t="inlineStr">
         <is>
-          <t>Gillis Aronsson, Cajsa Björkén</t>
+          <t>Gillis Aronsson</t>
         </is>
       </c>
       <c r="AY13" t="inlineStr"/>

--- a/artfynd/A 7380-2023.xlsx
+++ b/artfynd/A 7380-2023.xlsx
@@ -1505,10 +1505,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111611146</v>
+        <v>111611138</v>
       </c>
       <c r="B9" t="n">
-        <v>88630</v>
+        <v>81796</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1521,26 +1521,26 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>4823</v>
+        <v>5406</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Hasselsopp</t>
+          <t>Gulmjölkig storskål</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Leccinellum pseudoscabrum</t>
+          <t>Peziza succosa</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Kallenb.) Mikšík</t>
+          <t>Berk.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -1554,10 +1554,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>663088.0668624006</v>
+        <v>663213.3366271106</v>
       </c>
       <c r="R9" t="n">
-        <v>6634684.960451891</v>
+        <v>6634830.464506784</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1584,7 +1584,7 @@
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>2023-08-11</t>
+          <t>2023-08-12</t>
         </is>
       </c>
       <c r="Z9" t="inlineStr">
@@ -1594,7 +1594,7 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2023-08-11</t>
+          <t>2023-08-12</t>
         </is>
       </c>
       <c r="AB9" t="inlineStr">
@@ -1604,7 +1604,7 @@
       </c>
       <c r="AC9" t="inlineStr">
         <is>
-          <t>1 ex. under ek och hassel.</t>
+          <t>3 ex. på bar jord och i lövförna.</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1629,17 +1629,17 @@
       </c>
       <c r="AX9" t="inlineStr">
         <is>
-          <t>Gillis Aronsson</t>
+          <t>Gillis Aronsson, Cajsa Björkén</t>
         </is>
       </c>
       <c r="AY9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111611158</v>
+        <v>111611146</v>
       </c>
       <c r="B10" t="n">
-        <v>86021</v>
+        <v>88630</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1652,21 +1652,21 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>4037</v>
+        <v>4823</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Bolmörtsskivling</t>
+          <t>Hasselsopp</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Entoloma sinuatum</t>
+          <t>Leccinellum pseudoscabrum</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Bull.) P.Kumm.</t>
+          <t>(Kallenb.) Mikšík</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -1685,10 +1685,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>663128.0992466732</v>
+        <v>663088.0668624006</v>
       </c>
       <c r="R10" t="n">
-        <v>6634761.25188593</v>
+        <v>6634684.960451891</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1715,7 +1715,7 @@
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>2023-08-12</t>
+          <t>2023-08-11</t>
         </is>
       </c>
       <c r="Z10" t="inlineStr">
@@ -1725,7 +1725,7 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2023-08-12</t>
+          <t>2023-08-11</t>
         </is>
       </c>
       <c r="AB10" t="inlineStr">
@@ -1735,7 +1735,7 @@
       </c>
       <c r="AC10" t="inlineStr">
         <is>
-          <t>1 ex. i lövförna under ek och hassel.</t>
+          <t>1 ex. under ek och hassel.</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1760,7 +1760,7 @@
       </c>
       <c r="AX10" t="inlineStr">
         <is>
-          <t>Gillis Aronsson, Cajsa Björkén</t>
+          <t>Gillis Aronsson</t>
         </is>
       </c>
       <c r="AY10" t="inlineStr"/>
@@ -1898,10 +1898,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111611138</v>
+        <v>111611158</v>
       </c>
       <c r="B12" t="n">
-        <v>81796</v>
+        <v>86021</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1914,26 +1914,26 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>5406</v>
+        <v>4037</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Gulmjölkig storskål</t>
+          <t>Bolmörtsskivling</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Peziza succosa</t>
+          <t>Entoloma sinuatum</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Berk.</t>
+          <t>(Bull.) P.Kumm.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -1947,10 +1947,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>663213.3366271106</v>
+        <v>663128.0992466732</v>
       </c>
       <c r="R12" t="n">
-        <v>6634830.464506784</v>
+        <v>6634761.25188593</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1997,7 +1997,7 @@
       </c>
       <c r="AC12" t="inlineStr">
         <is>
-          <t>3 ex. på bar jord och i lövförna.</t>
+          <t>1 ex. i lövförna under ek och hassel.</t>
         </is>
       </c>
       <c r="AD12" t="b">

--- a/artfynd/A 7380-2023.xlsx
+++ b/artfynd/A 7380-2023.xlsx
@@ -1767,10 +1767,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111611145</v>
+        <v>111611158</v>
       </c>
       <c r="B11" t="n">
-        <v>88630</v>
+        <v>86021</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1783,21 +1783,21 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>4823</v>
+        <v>4037</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Hasselsopp</t>
+          <t>Bolmörtsskivling</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Leccinellum pseudoscabrum</t>
+          <t>Entoloma sinuatum</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Kallenb.) Mikšík</t>
+          <t>(Bull.) P.Kumm.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -1816,10 +1816,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>663143.8264147732</v>
+        <v>663128.0992466732</v>
       </c>
       <c r="R11" t="n">
-        <v>6634793.669287071</v>
+        <v>6634761.25188593</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1866,7 +1866,7 @@
       </c>
       <c r="AC11" t="inlineStr">
         <is>
-          <t>1 ex. i lövförna under hassel.</t>
+          <t>1 ex. i lövförna under ek och hassel.</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1898,10 +1898,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111611158</v>
+        <v>111611165</v>
       </c>
       <c r="B12" t="n">
-        <v>86021</v>
+        <v>84741</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1910,25 +1910,25 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>4037</v>
+        <v>37</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Bolmörtsskivling</t>
+          <t>Jättekamskivling</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Entoloma sinuatum</t>
+          <t>Amanita ceciliae</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Bull.) P.Kumm.</t>
+          <t>(Berk. &amp; Broome) Bas</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -1947,10 +1947,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>663128.0992466732</v>
+        <v>663088.0668624006</v>
       </c>
       <c r="R12" t="n">
-        <v>6634761.25188593</v>
+        <v>6634684.960451891</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1977,7 +1977,7 @@
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>2023-08-12</t>
+          <t>2023-08-11</t>
         </is>
       </c>
       <c r="Z12" t="inlineStr">
@@ -1987,7 +1987,7 @@
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>2023-08-12</t>
+          <t>2023-08-11</t>
         </is>
       </c>
       <c r="AB12" t="inlineStr">
@@ -1997,7 +1997,7 @@
       </c>
       <c r="AC12" t="inlineStr">
         <is>
-          <t>1 ex. i lövförna under ek och hassel.</t>
+          <t>1 ex. under ek och hassel.</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -2022,17 +2022,17 @@
       </c>
       <c r="AX12" t="inlineStr">
         <is>
-          <t>Gillis Aronsson, Cajsa Björkén</t>
+          <t>Gillis Aronsson</t>
         </is>
       </c>
       <c r="AY12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111611165</v>
+        <v>111611145</v>
       </c>
       <c r="B13" t="n">
-        <v>84741</v>
+        <v>88630</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -2041,25 +2041,25 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>37</v>
+        <v>4823</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Jättekamskivling</t>
+          <t>Hasselsopp</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Amanita ceciliae</t>
+          <t>Leccinellum pseudoscabrum</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Berk. &amp; Broome) Bas</t>
+          <t>(Kallenb.) Mikšík</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -2078,10 +2078,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>663088.0668624006</v>
+        <v>663143.8264147732</v>
       </c>
       <c r="R13" t="n">
-        <v>6634684.960451891</v>
+        <v>6634793.669287071</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2108,7 +2108,7 @@
       </c>
       <c r="Y13" t="inlineStr">
         <is>
-          <t>2023-08-11</t>
+          <t>2023-08-12</t>
         </is>
       </c>
       <c r="Z13" t="inlineStr">
@@ -2118,7 +2118,7 @@
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2023-08-11</t>
+          <t>2023-08-12</t>
         </is>
       </c>
       <c r="AB13" t="inlineStr">
@@ -2128,7 +2128,7 @@
       </c>
       <c r="AC13" t="inlineStr">
         <is>
-          <t>1 ex. under ek och hassel.</t>
+          <t>1 ex. i lövförna under hassel.</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -2153,7 +2153,7 @@
       </c>
       <c r="AX13" t="inlineStr">
         <is>
-          <t>Gillis Aronsson</t>
+          <t>Gillis Aronsson, Cajsa Björkén</t>
         </is>
       </c>
       <c r="AY13" t="inlineStr"/>

--- a/artfynd/A 7380-2023.xlsx
+++ b/artfynd/A 7380-2023.xlsx
@@ -1505,10 +1505,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111611138</v>
+        <v>111611165</v>
       </c>
       <c r="B9" t="n">
-        <v>81796</v>
+        <v>84741</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1517,30 +1517,30 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>5406</v>
+        <v>37</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Gulmjölkig storskål</t>
+          <t>Jättekamskivling</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Peziza succosa</t>
+          <t>Amanita ceciliae</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Berk.</t>
+          <t>(Berk. &amp; Broome) Bas</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -1554,10 +1554,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>663213.3366271106</v>
+        <v>663088.0668624006</v>
       </c>
       <c r="R9" t="n">
-        <v>6634830.464506784</v>
+        <v>6634684.960451891</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1584,7 +1584,7 @@
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>2023-08-12</t>
+          <t>2023-08-11</t>
         </is>
       </c>
       <c r="Z9" t="inlineStr">
@@ -1594,7 +1594,7 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2023-08-12</t>
+          <t>2023-08-11</t>
         </is>
       </c>
       <c r="AB9" t="inlineStr">
@@ -1604,7 +1604,7 @@
       </c>
       <c r="AC9" t="inlineStr">
         <is>
-          <t>3 ex. på bar jord och i lövförna.</t>
+          <t>1 ex. under ek och hassel.</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1629,17 +1629,17 @@
       </c>
       <c r="AX9" t="inlineStr">
         <is>
-          <t>Gillis Aronsson, Cajsa Björkén</t>
+          <t>Gillis Aronsson</t>
         </is>
       </c>
       <c r="AY9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111611146</v>
+        <v>111611138</v>
       </c>
       <c r="B10" t="n">
-        <v>88630</v>
+        <v>81796</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1652,26 +1652,26 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>4823</v>
+        <v>5406</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Hasselsopp</t>
+          <t>Gulmjölkig storskål</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Leccinellum pseudoscabrum</t>
+          <t>Peziza succosa</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Kallenb.) Mikšík</t>
+          <t>Berk.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -1685,10 +1685,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>663088.0668624006</v>
+        <v>663213.3366271106</v>
       </c>
       <c r="R10" t="n">
-        <v>6634684.960451891</v>
+        <v>6634830.464506784</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1715,7 +1715,7 @@
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>2023-08-11</t>
+          <t>2023-08-12</t>
         </is>
       </c>
       <c r="Z10" t="inlineStr">
@@ -1725,7 +1725,7 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2023-08-11</t>
+          <t>2023-08-12</t>
         </is>
       </c>
       <c r="AB10" t="inlineStr">
@@ -1735,7 +1735,7 @@
       </c>
       <c r="AC10" t="inlineStr">
         <is>
-          <t>1 ex. under ek och hassel.</t>
+          <t>3 ex. på bar jord och i lövförna.</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1760,17 +1760,17 @@
       </c>
       <c r="AX10" t="inlineStr">
         <is>
-          <t>Gillis Aronsson</t>
+          <t>Gillis Aronsson, Cajsa Björkén</t>
         </is>
       </c>
       <c r="AY10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111611158</v>
+        <v>111611146</v>
       </c>
       <c r="B11" t="n">
-        <v>86021</v>
+        <v>88630</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1783,21 +1783,21 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>4037</v>
+        <v>4823</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Bolmörtsskivling</t>
+          <t>Hasselsopp</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Entoloma sinuatum</t>
+          <t>Leccinellum pseudoscabrum</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Bull.) P.Kumm.</t>
+          <t>(Kallenb.) Mikšík</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -1816,10 +1816,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>663128.0992466732</v>
+        <v>663088.0668624006</v>
       </c>
       <c r="R11" t="n">
-        <v>6634761.25188593</v>
+        <v>6634684.960451891</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1846,7 +1846,7 @@
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>2023-08-12</t>
+          <t>2023-08-11</t>
         </is>
       </c>
       <c r="Z11" t="inlineStr">
@@ -1856,7 +1856,7 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2023-08-12</t>
+          <t>2023-08-11</t>
         </is>
       </c>
       <c r="AB11" t="inlineStr">
@@ -1866,7 +1866,7 @@
       </c>
       <c r="AC11" t="inlineStr">
         <is>
-          <t>1 ex. i lövförna under ek och hassel.</t>
+          <t>1 ex. under ek och hassel.</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1891,17 +1891,17 @@
       </c>
       <c r="AX11" t="inlineStr">
         <is>
-          <t>Gillis Aronsson, Cajsa Björkén</t>
+          <t>Gillis Aronsson</t>
         </is>
       </c>
       <c r="AY11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111611165</v>
+        <v>111611145</v>
       </c>
       <c r="B12" t="n">
-        <v>84741</v>
+        <v>88630</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1910,25 +1910,25 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>37</v>
+        <v>4823</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Jättekamskivling</t>
+          <t>Hasselsopp</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Amanita ceciliae</t>
+          <t>Leccinellum pseudoscabrum</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Berk. &amp; Broome) Bas</t>
+          <t>(Kallenb.) Mikšík</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -1947,10 +1947,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>663088.0668624006</v>
+        <v>663143.8264147732</v>
       </c>
       <c r="R12" t="n">
-        <v>6634684.960451891</v>
+        <v>6634793.669287071</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1977,7 +1977,7 @@
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>2023-08-11</t>
+          <t>2023-08-12</t>
         </is>
       </c>
       <c r="Z12" t="inlineStr">
@@ -1987,7 +1987,7 @@
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>2023-08-11</t>
+          <t>2023-08-12</t>
         </is>
       </c>
       <c r="AB12" t="inlineStr">
@@ -1997,7 +1997,7 @@
       </c>
       <c r="AC12" t="inlineStr">
         <is>
-          <t>1 ex. under ek och hassel.</t>
+          <t>1 ex. i lövförna under hassel.</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -2022,17 +2022,17 @@
       </c>
       <c r="AX12" t="inlineStr">
         <is>
-          <t>Gillis Aronsson</t>
+          <t>Gillis Aronsson, Cajsa Björkén</t>
         </is>
       </c>
       <c r="AY12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111611145</v>
+        <v>111611158</v>
       </c>
       <c r="B13" t="n">
-        <v>88630</v>
+        <v>86021</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -2045,21 +2045,21 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>4823</v>
+        <v>4037</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Hasselsopp</t>
+          <t>Bolmörtsskivling</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Leccinellum pseudoscabrum</t>
+          <t>Entoloma sinuatum</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Kallenb.) Mikšík</t>
+          <t>(Bull.) P.Kumm.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -2078,10 +2078,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>663143.8264147732</v>
+        <v>663128.0992466732</v>
       </c>
       <c r="R13" t="n">
-        <v>6634793.669287071</v>
+        <v>6634761.25188593</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2128,7 +2128,7 @@
       </c>
       <c r="AC13" t="inlineStr">
         <is>
-          <t>1 ex. i lövförna under hassel.</t>
+          <t>1 ex. i lövförna under ek och hassel.</t>
         </is>
       </c>
       <c r="AD13" t="b">

--- a/artfynd/A 7380-2023.xlsx
+++ b/artfynd/A 7380-2023.xlsx
@@ -1636,10 +1636,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111611138</v>
+        <v>111611158</v>
       </c>
       <c r="B10" t="n">
-        <v>81796</v>
+        <v>86021</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1652,26 +1652,26 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>5406</v>
+        <v>4037</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Gulmjölkig storskål</t>
+          <t>Bolmörtsskivling</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Peziza succosa</t>
+          <t>Entoloma sinuatum</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Berk.</t>
+          <t>(Bull.) P.Kumm.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -1685,10 +1685,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>663213.3366271106</v>
+        <v>663128.0992466732</v>
       </c>
       <c r="R10" t="n">
-        <v>6634830.464506784</v>
+        <v>6634761.25188593</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1735,7 +1735,7 @@
       </c>
       <c r="AC10" t="inlineStr">
         <is>
-          <t>3 ex. på bar jord och i lövförna.</t>
+          <t>1 ex. i lövförna under ek och hassel.</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1767,10 +1767,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111611146</v>
+        <v>111611138</v>
       </c>
       <c r="B11" t="n">
-        <v>88630</v>
+        <v>81796</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1783,26 +1783,26 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>4823</v>
+        <v>5406</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Hasselsopp</t>
+          <t>Gulmjölkig storskål</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Leccinellum pseudoscabrum</t>
+          <t>Peziza succosa</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Kallenb.) Mikšík</t>
+          <t>Berk.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -1816,10 +1816,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>663088.0668624006</v>
+        <v>663213.3366271106</v>
       </c>
       <c r="R11" t="n">
-        <v>6634684.960451891</v>
+        <v>6634830.464506784</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1846,7 +1846,7 @@
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>2023-08-11</t>
+          <t>2023-08-12</t>
         </is>
       </c>
       <c r="Z11" t="inlineStr">
@@ -1856,7 +1856,7 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2023-08-11</t>
+          <t>2023-08-12</t>
         </is>
       </c>
       <c r="AB11" t="inlineStr">
@@ -1866,7 +1866,7 @@
       </c>
       <c r="AC11" t="inlineStr">
         <is>
-          <t>1 ex. under ek och hassel.</t>
+          <t>3 ex. på bar jord och i lövförna.</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1891,7 +1891,7 @@
       </c>
       <c r="AX11" t="inlineStr">
         <is>
-          <t>Gillis Aronsson</t>
+          <t>Gillis Aronsson, Cajsa Björkén</t>
         </is>
       </c>
       <c r="AY11" t="inlineStr"/>
@@ -2029,10 +2029,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111611158</v>
+        <v>111611146</v>
       </c>
       <c r="B13" t="n">
-        <v>86021</v>
+        <v>88630</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -2045,21 +2045,21 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>4037</v>
+        <v>4823</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Bolmörtsskivling</t>
+          <t>Hasselsopp</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Entoloma sinuatum</t>
+          <t>Leccinellum pseudoscabrum</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Bull.) P.Kumm.</t>
+          <t>(Kallenb.) Mikšík</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -2078,10 +2078,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>663128.0992466732</v>
+        <v>663088.0668624006</v>
       </c>
       <c r="R13" t="n">
-        <v>6634761.25188593</v>
+        <v>6634684.960451891</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2108,7 +2108,7 @@
       </c>
       <c r="Y13" t="inlineStr">
         <is>
-          <t>2023-08-12</t>
+          <t>2023-08-11</t>
         </is>
       </c>
       <c r="Z13" t="inlineStr">
@@ -2118,7 +2118,7 @@
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2023-08-12</t>
+          <t>2023-08-11</t>
         </is>
       </c>
       <c r="AB13" t="inlineStr">
@@ -2128,7 +2128,7 @@
       </c>
       <c r="AC13" t="inlineStr">
         <is>
-          <t>1 ex. i lövförna under ek och hassel.</t>
+          <t>1 ex. under ek och hassel.</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -2153,7 +2153,7 @@
       </c>
       <c r="AX13" t="inlineStr">
         <is>
-          <t>Gillis Aronsson, Cajsa Björkén</t>
+          <t>Gillis Aronsson</t>
         </is>
       </c>
       <c r="AY13" t="inlineStr"/>

--- a/artfynd/A 7380-2023.xlsx
+++ b/artfynd/A 7380-2023.xlsx
@@ -2211,10 +2211,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>663205.6786993854</v>
+        <v>663206</v>
       </c>
       <c r="R14" t="n">
-        <v>6634821.063307846</v>
+        <v>6634821</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2244,19 +2244,9 @@
           <t>2023-08-12</t>
         </is>
       </c>
-      <c r="Z14" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA14" t="inlineStr">
         <is>
           <t>2023-08-12</t>
-        </is>
-      </c>
-      <c r="AB14" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AC14" t="inlineStr">
